--- a/PDRMYE/MAPAS DE FLUJO/MAPA DE FLUJO DEL PROCESO DE ORGANISMOS.xlsx
+++ b/PDRMYE/MAPAS DE FLUJO/MAPA DE FLUJO DEL PROCESO DE ORGANISMOS.xlsx
@@ -80,13 +80,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>267850</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>168504</xdr:rowOff>
+      <xdr:rowOff>168505</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>430629</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>173839</xdr:rowOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -95,8 +95,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3315850" y="740004"/>
-          <a:ext cx="3210779" cy="15245335"/>
+          <a:off x="267850" y="740005"/>
+          <a:ext cx="3210779" cy="13528446"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -248,7 +248,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="es-MX" sz="1800" b="1"/>
-            <a:t>MAPA DE FLUJO DEL PROCESO DE PARTICIPACIONES Y APORTACIONES A MUNICIPIOS</a:t>
+            <a:t>MAPA DE FLUJO DEL PROCESO DE PARTICIPACIONES Y APORTACIONES A ORGANISMOS</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -273,8 +273,8 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>593682</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>174626</xdr:rowOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -283,8 +283,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6526903" y="734756"/>
-          <a:ext cx="3210779" cy="15251370"/>
+          <a:off x="3478903" y="734756"/>
+          <a:ext cx="3210779" cy="13533694"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -388,13 +388,13 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>594966</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>172642</xdr:rowOff>
+      <xdr:rowOff>172643</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>757745</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>174625</xdr:rowOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -403,8 +403,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9738966" y="744142"/>
-          <a:ext cx="3210779" cy="15241983"/>
+          <a:off x="6690966" y="744143"/>
+          <a:ext cx="3210779" cy="13524308"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -714,8 +714,8 @@
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>157844</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>187708</xdr:rowOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -724,8 +724,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12949065" y="1311312"/>
-          <a:ext cx="3210779" cy="14687896"/>
+          <a:off x="9901065" y="1311312"/>
+          <a:ext cx="3210779" cy="12957138"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -895,14 +895,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>415636</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>86984</xdr:rowOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>48884</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>136605</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>156618</xdr:rowOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>118518</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -911,7 +911,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4225636" y="11897984"/>
+          <a:off x="1177636" y="10526384"/>
           <a:ext cx="2006969" cy="641134"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -981,14 +981,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>645476</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>62026</xdr:rowOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>23926</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>460665</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>102525</xdr:rowOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>64425</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -997,7 +997,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3693476" y="9777526"/>
+          <a:off x="645476" y="8405926"/>
           <a:ext cx="2101189" cy="611999"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1067,14 +1067,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>166924</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>59890</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>21790</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>172072</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>62025</xdr:rowOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>23925</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1086,7 +1086,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="3311680" y="8345134"/>
+          <a:off x="263680" y="6973534"/>
           <a:ext cx="2859635" cy="5148"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -1122,14 +1122,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>33634</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>115558</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>77458</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>300211</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>59891</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>21791</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1138,7 +1138,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3843634" y="6402058"/>
+          <a:off x="795634" y="5030458"/>
           <a:ext cx="1790577" cy="515833"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1193,14 +1193,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>322539</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>168139</xdr:rowOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>130039</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>589116</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>118822</xdr:rowOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>80722</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1209,7 +1209,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7180539" y="13312639"/>
+          <a:off x="4132539" y="11941039"/>
           <a:ext cx="1790577" cy="522183"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1264,14 +1264,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>460665</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>177526</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>719868</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>86331</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>124431</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>224568</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>139426</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1282,9 +1282,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5794665" y="10083526"/>
-          <a:ext cx="1021203" cy="1242305"/>
+        <a:xfrm flipV="1">
+          <a:off x="2746665" y="6029931"/>
+          <a:ext cx="1287903" cy="2681995"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -1405,14 +1405,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>33634</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>182975</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>144875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>455828</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>118822</xdr:rowOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>80722</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1424,7 +1424,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1">
-          <a:off x="2372307" y="8131302"/>
+          <a:off x="-675693" y="6759702"/>
           <a:ext cx="7174847" cy="4232194"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector4">
@@ -1460,15 +1460,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>224445</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>162190</xdr:rowOff>
+      <xdr:colOff>491145</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>124090</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>341899</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>86331</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>124431</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1480,8 +1480,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="8606445" y="1876690"/>
-          <a:ext cx="1641454" cy="9449141"/>
+          <a:off x="5825145" y="3362590"/>
+          <a:ext cx="1374754" cy="2667341"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -1516,14 +1516,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>362070</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>170972</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>132872</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>444870</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>50106</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>12006</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1532,7 +1532,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11030070" y="4361972"/>
+          <a:off x="7982070" y="5847872"/>
           <a:ext cx="1606800" cy="641134"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1602,14 +1602,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>648940</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>168528</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>130428</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>254370</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>18527</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>170927</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1618,7 +1618,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10554940" y="3026028"/>
+          <a:off x="7506940" y="4511928"/>
           <a:ext cx="1891430" cy="611999"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1688,14 +1688,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>475187</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>39106</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>1006</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>70654</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>168528</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>130428</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1707,7 +1707,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="10876210" y="2401583"/>
+          <a:off x="7828210" y="3887483"/>
           <a:ext cx="891422" cy="357467"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -1743,14 +1743,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>341899</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>94773</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>56673</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>608476</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>39106</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>1006</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1759,7 +1759,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10247899" y="1618773"/>
+          <a:off x="7199899" y="3104673"/>
           <a:ext cx="1790577" cy="515833"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1815,13 +1815,13 @@
       <xdr:col>17</xdr:col>
       <xdr:colOff>157735</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>170720</xdr:rowOff>
+      <xdr:rowOff>170721</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>320514</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>174625</xdr:rowOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1830,8 +1830,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16159735" y="1313720"/>
-          <a:ext cx="3210779" cy="14672405"/>
+          <a:off x="13111735" y="1313721"/>
+          <a:ext cx="3210779" cy="12954730"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1923,8 +1923,13 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1400" b="1"/>
-            <a:t>Municipio</a:t>
-          </a:r>
+            <a:t>Organismos</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" baseline="0"/>
+            <a:t> Públicos Descentralizados</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400" b="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1990,451 +1995,19 @@
                 </a:schemeClr>
               </a:solidFill>
             </a:rPr>
-            <a:t>MUNICIPIOS</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>33924</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>120173</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>300501</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>64506</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="Rectángulo 47"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16797924" y="6406673"/>
-          <a:ext cx="1790577" cy="515833"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="accent6"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent5"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent5"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Solicitud cuenta bancaria</a:t>
-          </a:r>
-          <a:endParaRPr lang="es-MX" sz="1600" b="1">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>757824</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>107473</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>262401</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>51806</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="Rectángulo 48"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16759824" y="7727473"/>
-          <a:ext cx="1790577" cy="515833"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="accent6"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent5"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent5"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Informe Rechazo</a:t>
-          </a:r>
-          <a:endParaRPr lang="es-MX" sz="1600" b="1">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>300212</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>182976</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>33925</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>187591</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="54" name="Conector angular 53"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="48" idx="1"/>
-          <a:endCxn id="119" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="5634212" y="6659976"/>
-          <a:ext cx="11163713" cy="4615"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:schemeClr val="accent5"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent5"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent5"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent5"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>530225</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="65" name="Rectángulo 64"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6626225" y="8667750"/>
-          <a:ext cx="460375" cy="381000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1"/>
-            <a:t>Si</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>584408</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>655</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>155122</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>55459</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="66" name="Rectángulo 65"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6680408" y="7620655"/>
-          <a:ext cx="1094714" cy="435804"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1"/>
-            <a:t>No</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>216936</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>99828</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="67" name="Decisión 66"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5505450" y="7289800"/>
-          <a:ext cx="1569486" cy="1382528"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartDecision">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="accent6"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent5"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent5"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Autoriza</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>216936</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>170564</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>757824</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>174890</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="74" name="Conector angular 73"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="67" idx="3"/>
-          <a:endCxn id="49" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7074936" y="7981064"/>
-          <a:ext cx="9684888" cy="4326"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:schemeClr val="accent5"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent5"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent5"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent5"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
+            <a:t>OPD's</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>648940</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>93527</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>55427</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
@@ -2452,8 +2025,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipH="1" flipV="1">
-          <a:off x="10554940" y="3332027"/>
-          <a:ext cx="6230284" cy="7399737"/>
+          <a:off x="7506940" y="4817927"/>
+          <a:ext cx="6230284" cy="5913837"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -2699,16 +2272,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>719868</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>15739</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>224568</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>53839</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>224445</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>156922</xdr:rowOff>
+      <xdr:colOff>491145</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>4522</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2717,7 +2290,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6815868" y="11064739"/>
+          <a:off x="4034568" y="5768839"/>
           <a:ext cx="1790577" cy="522183"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2766,174 +2339,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>166923</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>59890</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>170563</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="86" name="Conector angular 85"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="119" idx="2"/>
-          <a:endCxn id="67" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="4590600" y="7066213"/>
-          <a:ext cx="1063173" cy="766527"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:schemeClr val="accent5"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent5"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent5"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent5"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>14874</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>12223</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>281451</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>147056</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="87" name="Rectángulo 86"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16778874" y="8775223"/>
-          <a:ext cx="1790577" cy="515833"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="accent6"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent5"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent5"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
-          <a:r>
-            <a:rPr lang="es-MX" sz="1600" b="1">
-              <a:effectLst/>
-            </a:rPr>
-            <a:t>Alta de cuenta</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>194192</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>99828</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>14873</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>79640</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="89" name="Conector angular 88"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="67" idx="2"/>
-          <a:endCxn id="87" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="11354127" y="3608393"/>
-          <a:ext cx="360812" cy="10488681"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:schemeClr val="accent5"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent5"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent5"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent5"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3208,7 +2613,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="AB28" sqref="AB28"/>
+      <selection activeCell="Y24" sqref="Y24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
